--- a/data_excel/443.xlsx
+++ b/data_excel/443.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>冰箱</t>
   </si>
@@ -119,6 +119,16 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,14 +209,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -501,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,59 +660,70 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_excel/443.xlsx
+++ b/data_excel/443.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>冰箱</t>
   </si>
@@ -119,16 +119,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +148,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,27 +191,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -532,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,70 +629,59 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data_excel/443.xlsx
+++ b/data_excel/443.xlsx
@@ -51,9 +51,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -129,6 +126,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -220,16 +221,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -535,12 +552,12 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -573,28 +590,28 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -602,36 +619,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -642,7 +659,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -653,78 +670,78 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/443.xlsx
+++ b/data_excel/443.xlsx
@@ -111,14 +111,6 @@
     <t>。</t>
   </si>
   <si>
-    <t>nv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被</t>
   </si>
   <si>
@@ -130,6 +122,14 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -692,10 +692,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
